--- a/Documents/Deliverable drafts_&_templates/Deliverable 3/SixGuys_Deliverable_3_SprintBackLog_4.xlsx
+++ b/Documents/Deliverable drafts_&_templates/Deliverable 3/SixGuys_Deliverable_3_SprintBackLog_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Umaine\COS420\Project-Burger\Documents\Deliverable drafts_&amp;_templates\Deliverable 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5438C62D-61BF-4B23-A21C-7B95697A2882}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41110CC-1885-4431-BB5F-D8C2AEC43C4E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="85">
   <si>
     <t>Sprint Number</t>
   </si>
@@ -278,6 +278,18 @@
   </si>
   <si>
     <t>As a player, I want to be able to fight against a variety of enemies so that I do not get bored with having to kill the same enemies repeatedly for the whole game.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>As a player I want to be able to lose lives so that the game has risks in it.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>As a player I want to be able to get a gameover so that I can lose the game.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Cooper Dahlberg</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1815,7 +1827,7 @@
   <dimension ref="A1:AMJ53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A11" sqref="A11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,21 +2081,51 @@
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="17"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="7"/>
+      <c r="A11" s="24">
+        <v>4</v>
+      </c>
+      <c r="B11" s="24">
+        <v>5</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="25">
+        <v>5</v>
+      </c>
+      <c r="F11" s="24">
+        <v>2</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>82</v>
+      </c>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="17"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="7"/>
+      <c r="A12" s="24">
+        <v>4</v>
+      </c>
+      <c r="B12" s="24">
+        <v>5</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25">
+        <v>5</v>
+      </c>
+      <c r="F12" s="24">
+        <v>2</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
